--- a/pred_ohlcv/54_21/2020-01-23 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 FX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-45831.39394447522</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-45158.87615747522</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-45173.87615747522</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-45165.87615747522</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-45165.87615747522</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-25167.93555745115</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-27521.93555745115</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-27513.93555745115</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-27996.93555745115</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-27986.93555745115</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-28429.93555745115</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-27111.06735745115</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-33330.04565745115</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-33322.04565745115</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-33646.04565745115</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-77527.05210360725</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-77871.01210360725</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-78370.01210360725</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-118272.0121036073</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-118264.0121036073</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-118579.2501036072</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-118829.2501036072</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-103765.1501036072</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-103415.3776036072</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-104271.2695506413</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-103803.2885506413</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-104253.2885506413</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-104263.7485506413</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-103063.7485506413</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-117470.7629506413</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-117170.0939506413</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-117170.0939506413</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-117350.5088506413</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-117350.5088506413</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-117410.6703506413</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-117718.1803506413</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-117684.6687506413</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-117674.8957506413</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-117953.9057506413</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-117953.9057506413</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-118941.4153506413</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-118933.4153506413</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-170050.6349506413</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-170042.6349506413</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-184766.1661506413</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-184412.4913506413</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-184404.4913506413</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-195620.3724506413</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-194827.7245506413</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-194967.2808506413</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-189996.2707506413</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-189794.9881506413</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-189794.9881506413</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-194311.5604506413</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-206250.8495506413</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 FX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-45831.39394447522</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-45158.87615747522</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-45173.87615747522</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-45165.87615747522</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-27521.93555745115</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-28429.93555745115</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-33330.04565745115</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-97834.82105745113</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-97834.82105745113</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-97826.82105745113</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-97862.82105745113</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-97862.82105745113</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-103044.8992574511</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-77868.01210360725</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-77842.01210360725</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-77860.01210360725</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-77860.01210360725</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-77842.01210360725</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-77824.01210360725</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-77843.01210360725</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-77843.01210360725</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-77879.01210360725</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-77879.01210360725</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-77889.01210360725</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-77871.01210360725</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-78370.01210360725</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-118272.0121036073</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-118264.0121036073</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-118579.2501036072</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-118829.2501036072</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-103765.1501036072</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-103415.3776036072</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-104802.9782506413</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-104261.2695506413</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-104271.2695506413</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-104497.7360506413</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-104253.2885506413</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-117170.0939506413</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-117170.0939506413</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-117160.0939506413</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-117350.5088506413</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-117350.5088506413</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-117410.6703506413</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-117718.1803506413</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-117684.6687506413</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-117665.4677506413</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-117674.8957506413</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-117953.9057506413</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-117953.9057506413</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-118941.4153506413</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-118933.4153506413</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-170050.6349506413</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-170042.6349506413</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-184412.4913506413</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-184404.4913506413</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-195620.3724506413</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-195937.1533506413</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-194827.7245506413</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-194967.2808506413</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-189996.2707506413</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-189794.9881506413</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-189794.9881506413</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-194311.5604506413</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-206250.8495506413</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-206250.8495506413</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-206250.8495506413</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
